--- a/Uploads/NEAR-USD_1y.xlsx
+++ b/Uploads/NEAR-USD_1y.xlsx
@@ -456,4017 +456,4017 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B2" t="n">
-        <v>5.427</v>
+        <v>4.948</v>
       </c>
       <c r="C2" t="n">
-        <v>2804294.664</v>
+        <v>1006158.533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45469</v>
+        <v>45472</v>
       </c>
       <c r="B3" t="n">
-        <v>5.174</v>
+        <v>4.955</v>
       </c>
       <c r="C3" t="n">
-        <v>974879.335</v>
+        <v>352205.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45470</v>
+        <v>45473</v>
       </c>
       <c r="B4" t="n">
-        <v>5.219</v>
+        <v>5.297</v>
       </c>
       <c r="C4" t="n">
-        <v>1508437.268</v>
+        <v>961480.545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B5" t="n">
-        <v>4.948</v>
+        <v>5.263</v>
       </c>
       <c r="C5" t="n">
-        <v>1006158.533</v>
+        <v>674011.115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45472</v>
+        <v>45475</v>
       </c>
       <c r="B6" t="n">
-        <v>4.955</v>
+        <v>5.513</v>
       </c>
       <c r="C6" t="n">
-        <v>352205.26</v>
+        <v>1436702.645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45473</v>
+        <v>45476</v>
       </c>
       <c r="B7" t="n">
-        <v>5.297</v>
+        <v>5.027</v>
       </c>
       <c r="C7" t="n">
-        <v>961480.545</v>
+        <v>1041460.853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45477</v>
       </c>
       <c r="B8" t="n">
-        <v>5.263</v>
+        <v>4.618</v>
       </c>
       <c r="C8" t="n">
-        <v>674011.115</v>
+        <v>1851913.28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B9" t="n">
-        <v>5.513</v>
+        <v>4.419</v>
       </c>
       <c r="C9" t="n">
-        <v>1436702.645</v>
+        <v>2817729.684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45476</v>
+        <v>45479</v>
       </c>
       <c r="B10" t="n">
-        <v>5.027</v>
+        <v>4.812</v>
       </c>
       <c r="C10" t="n">
-        <v>1041460.853</v>
+        <v>831647.726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45477</v>
+        <v>45480</v>
       </c>
       <c r="B11" t="n">
-        <v>4.618</v>
+        <v>4.401</v>
       </c>
       <c r="C11" t="n">
-        <v>1851913.28</v>
+        <v>1330194.026</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B12" t="n">
-        <v>4.419</v>
+        <v>4.469</v>
       </c>
       <c r="C12" t="n">
-        <v>2817729.684</v>
+        <v>1290377.808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45479</v>
+        <v>45482</v>
       </c>
       <c r="B13" t="n">
-        <v>4.812</v>
+        <v>4.534</v>
       </c>
       <c r="C13" t="n">
-        <v>831647.726</v>
+        <v>1132753.97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45480</v>
+        <v>45483</v>
       </c>
       <c r="B14" t="n">
-        <v>4.401</v>
+        <v>4.626</v>
       </c>
       <c r="C14" t="n">
-        <v>1330194.026</v>
+        <v>826657.593</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B15" t="n">
-        <v>4.469</v>
+        <v>4.934</v>
       </c>
       <c r="C15" t="n">
-        <v>1290377.808</v>
+        <v>2838316.334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B16" t="n">
-        <v>4.534</v>
+        <v>5.19</v>
       </c>
       <c r="C16" t="n">
-        <v>1132753.97</v>
+        <v>1996232.603</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45483</v>
+        <v>45486</v>
       </c>
       <c r="B17" t="n">
-        <v>4.626</v>
+        <v>5.203</v>
       </c>
       <c r="C17" t="n">
-        <v>826657.593</v>
+        <v>798655.474</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45484</v>
+        <v>45487</v>
       </c>
       <c r="B18" t="n">
-        <v>4.934</v>
+        <v>5.404</v>
       </c>
       <c r="C18" t="n">
-        <v>2838316.334</v>
+        <v>1099501.92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="B19" t="n">
-        <v>5.19</v>
+        <v>5.924</v>
       </c>
       <c r="C19" t="n">
-        <v>1996232.603</v>
+        <v>1970159.172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45486</v>
+        <v>45489</v>
       </c>
       <c r="B20" t="n">
-        <v>5.203</v>
+        <v>6.252</v>
       </c>
       <c r="C20" t="n">
-        <v>798655.474</v>
+        <v>2756132.293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45487</v>
+        <v>45490</v>
       </c>
       <c r="B21" t="n">
-        <v>5.404</v>
+        <v>6.068</v>
       </c>
       <c r="C21" t="n">
-        <v>1099501.92</v>
+        <v>2131627.598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B22" t="n">
-        <v>5.924</v>
+        <v>6.039</v>
       </c>
       <c r="C22" t="n">
-        <v>1970159.172</v>
+        <v>1071609.018</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B23" t="n">
-        <v>6.252</v>
+        <v>6.438</v>
       </c>
       <c r="C23" t="n">
-        <v>2756132.293</v>
+        <v>1164910.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45490</v>
+        <v>45493</v>
       </c>
       <c r="B24" t="n">
-        <v>6.068</v>
+        <v>6.288</v>
       </c>
       <c r="C24" t="n">
-        <v>2131627.598</v>
+        <v>535018.982</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45491</v>
+        <v>45494</v>
       </c>
       <c r="B25" t="n">
-        <v>6.039</v>
+        <v>6.34</v>
       </c>
       <c r="C25" t="n">
-        <v>1071609.018</v>
+        <v>1145612.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="B26" t="n">
-        <v>6.438</v>
+        <v>6.035</v>
       </c>
       <c r="C26" t="n">
-        <v>1164910.96</v>
+        <v>1064465.544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45493</v>
+        <v>45496</v>
       </c>
       <c r="B27" t="n">
-        <v>6.288</v>
+        <v>5.763</v>
       </c>
       <c r="C27" t="n">
-        <v>535018.982</v>
+        <v>902925.866</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45494</v>
+        <v>45497</v>
       </c>
       <c r="B28" t="n">
-        <v>6.34</v>
+        <v>5.623</v>
       </c>
       <c r="C28" t="n">
-        <v>1145612.96</v>
+        <v>952025.508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B29" t="n">
-        <v>6.035</v>
+        <v>5.414</v>
       </c>
       <c r="C29" t="n">
-        <v>1064465.544</v>
+        <v>1588980.155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B30" t="n">
-        <v>5.763</v>
+        <v>5.715</v>
       </c>
       <c r="C30" t="n">
-        <v>902925.866</v>
+        <v>930377.499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45497</v>
+        <v>45500</v>
       </c>
       <c r="B31" t="n">
-        <v>5.623</v>
+        <v>5.678</v>
       </c>
       <c r="C31" t="n">
-        <v>952025.508</v>
+        <v>860266.522</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45498</v>
+        <v>45501</v>
       </c>
       <c r="B32" t="n">
-        <v>5.414</v>
+        <v>5.443</v>
       </c>
       <c r="C32" t="n">
-        <v>1588980.155</v>
+        <v>821277.868</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B33" t="n">
-        <v>5.715</v>
+        <v>5.268</v>
       </c>
       <c r="C33" t="n">
-        <v>930377.499</v>
+        <v>980916.723</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45500</v>
+        <v>45503</v>
       </c>
       <c r="B34" t="n">
-        <v>5.678</v>
+        <v>5.148</v>
       </c>
       <c r="C34" t="n">
-        <v>860266.522</v>
+        <v>1109847.428</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45501</v>
+        <v>45504</v>
       </c>
       <c r="B35" t="n">
-        <v>5.443</v>
+        <v>4.986</v>
       </c>
       <c r="C35" t="n">
-        <v>821277.868</v>
+        <v>960891.237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B36" t="n">
-        <v>5.268</v>
+        <v>4.977</v>
       </c>
       <c r="C36" t="n">
-        <v>980916.723</v>
+        <v>2009847.488</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B37" t="n">
-        <v>5.148</v>
+        <v>4.6</v>
       </c>
       <c r="C37" t="n">
-        <v>1109847.428</v>
+        <v>1083369.563</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45504</v>
+        <v>45507</v>
       </c>
       <c r="B38" t="n">
-        <v>4.986</v>
+        <v>4.366</v>
       </c>
       <c r="C38" t="n">
-        <v>960891.237</v>
+        <v>1219809.651</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="B39" t="n">
-        <v>4.977</v>
+        <v>4.131</v>
       </c>
       <c r="C39" t="n">
-        <v>2009847.488</v>
+        <v>1266759.625</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="B40" t="n">
-        <v>4.6</v>
+        <v>3.524</v>
       </c>
       <c r="C40" t="n">
-        <v>1083369.563</v>
+        <v>6143196.124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="B41" t="n">
-        <v>4.366</v>
+        <v>3.678</v>
       </c>
       <c r="C41" t="n">
-        <v>1219809.651</v>
+        <v>2066278.155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45508</v>
+        <v>45511</v>
       </c>
       <c r="B42" t="n">
-        <v>4.131</v>
+        <v>3.569</v>
       </c>
       <c r="C42" t="n">
-        <v>1266759.625</v>
+        <v>1380753.749</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B43" t="n">
-        <v>3.524</v>
+        <v>4.063</v>
       </c>
       <c r="C43" t="n">
-        <v>6143196.124</v>
+        <v>1458937.736</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B44" t="n">
-        <v>3.678</v>
+        <v>4.056</v>
       </c>
       <c r="C44" t="n">
-        <v>2066278.155</v>
+        <v>1630357.064</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="B45" t="n">
-        <v>3.569</v>
+        <v>4.163</v>
       </c>
       <c r="C45" t="n">
-        <v>1380753.749</v>
+        <v>860931.314</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="B46" t="n">
-        <v>4.063</v>
+        <v>3.87</v>
       </c>
       <c r="C46" t="n">
-        <v>1458937.736</v>
+        <v>962651.598</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="B47" t="n">
-        <v>4.056</v>
+        <v>4.109</v>
       </c>
       <c r="C47" t="n">
-        <v>1630357.064</v>
+        <v>943065.018</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="B48" t="n">
-        <v>4.163</v>
+        <v>4.304</v>
       </c>
       <c r="C48" t="n">
-        <v>860931.314</v>
+        <v>831937.154</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="B49" t="n">
-        <v>3.87</v>
+        <v>4.17</v>
       </c>
       <c r="C49" t="n">
-        <v>962651.598</v>
+        <v>412729.043</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B50" t="n">
-        <v>4.109</v>
+        <v>4.024</v>
       </c>
       <c r="C50" t="n">
-        <v>943065.018</v>
+        <v>685808.035</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B51" t="n">
-        <v>4.304</v>
+        <v>3.967</v>
       </c>
       <c r="C51" t="n">
-        <v>831937.154</v>
+        <v>874769.499</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45518</v>
+        <v>45521</v>
       </c>
       <c r="B52" t="n">
-        <v>4.17</v>
+        <v>3.992</v>
       </c>
       <c r="C52" t="n">
-        <v>412729.043</v>
+        <v>548240.154</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45519</v>
+        <v>45522</v>
       </c>
       <c r="B53" t="n">
-        <v>4.024</v>
+        <v>3.897</v>
       </c>
       <c r="C53" t="n">
-        <v>685808.035</v>
+        <v>874189.152</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="B54" t="n">
-        <v>3.967</v>
+        <v>4.002</v>
       </c>
       <c r="C54" t="n">
-        <v>874769.499</v>
+        <v>678610.976</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="B55" t="n">
-        <v>3.992</v>
+        <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>548240.154</v>
+        <v>874417.442</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45522</v>
+        <v>45525</v>
       </c>
       <c r="B56" t="n">
-        <v>3.897</v>
+        <v>4.244</v>
       </c>
       <c r="C56" t="n">
-        <v>874189.152</v>
+        <v>1210650.712</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B57" t="n">
-        <v>4.002</v>
+        <v>4.304</v>
       </c>
       <c r="C57" t="n">
-        <v>678610.976</v>
+        <v>1212229.227</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>4.84</v>
       </c>
       <c r="C58" t="n">
-        <v>874417.442</v>
+        <v>2192757.618</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45525</v>
+        <v>45528</v>
       </c>
       <c r="B59" t="n">
-        <v>4.244</v>
+        <v>5.047</v>
       </c>
       <c r="C59" t="n">
-        <v>1210650.712</v>
+        <v>1254609.034</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45526</v>
+        <v>45529</v>
       </c>
       <c r="B60" t="n">
-        <v>4.304</v>
+        <v>4.92</v>
       </c>
       <c r="C60" t="n">
-        <v>1212229.227</v>
+        <v>1203248.531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="B61" t="n">
-        <v>4.84</v>
+        <v>4.781</v>
       </c>
       <c r="C61" t="n">
-        <v>2192757.618</v>
+        <v>1115805.474</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45528</v>
+        <v>45531</v>
       </c>
       <c r="B62" t="n">
-        <v>5.047</v>
+        <v>4.534</v>
       </c>
       <c r="C62" t="n">
-        <v>1254609.034</v>
+        <v>2408323.447</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45529</v>
+        <v>45532</v>
       </c>
       <c r="B63" t="n">
-        <v>4.92</v>
+        <v>4.344</v>
       </c>
       <c r="C63" t="n">
-        <v>1203248.531</v>
+        <v>2107177.15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B64" t="n">
-        <v>4.781</v>
+        <v>4.213</v>
       </c>
       <c r="C64" t="n">
-        <v>1115805.474</v>
+        <v>1209244.419</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B65" t="n">
-        <v>4.534</v>
+        <v>4.113</v>
       </c>
       <c r="C65" t="n">
-        <v>2408323.447</v>
+        <v>1452374.417</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45532</v>
+        <v>45535</v>
       </c>
       <c r="B66" t="n">
-        <v>4.344</v>
+        <v>4.029</v>
       </c>
       <c r="C66" t="n">
-        <v>2107177.15</v>
+        <v>959748.466</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45533</v>
+        <v>45536</v>
       </c>
       <c r="B67" t="n">
-        <v>4.213</v>
+        <v>3.848</v>
       </c>
       <c r="C67" t="n">
-        <v>1209244.419</v>
+        <v>932892.699</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="B68" t="n">
-        <v>4.113</v>
+        <v>3.988</v>
       </c>
       <c r="C68" t="n">
-        <v>1452374.417</v>
+        <v>1468852.389</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45535</v>
+        <v>45538</v>
       </c>
       <c r="B69" t="n">
-        <v>4.029</v>
+        <v>3.724</v>
       </c>
       <c r="C69" t="n">
-        <v>959748.466</v>
+        <v>1372550.788</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45536</v>
+        <v>45539</v>
       </c>
       <c r="B70" t="n">
-        <v>3.848</v>
+        <v>3.884</v>
       </c>
       <c r="C70" t="n">
-        <v>932892.699</v>
+        <v>1206064.112</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="B71" t="n">
-        <v>3.988</v>
+        <v>3.709</v>
       </c>
       <c r="C71" t="n">
-        <v>1468852.389</v>
+        <v>1156323.608</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B72" t="n">
-        <v>3.724</v>
+        <v>3.547</v>
       </c>
       <c r="C72" t="n">
-        <v>1372550.788</v>
+        <v>3177055.696</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45539</v>
+        <v>45542</v>
       </c>
       <c r="B73" t="n">
-        <v>3.884</v>
+        <v>3.665</v>
       </c>
       <c r="C73" t="n">
-        <v>1206064.112</v>
+        <v>649236.635</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45540</v>
+        <v>45543</v>
       </c>
       <c r="B74" t="n">
-        <v>3.709</v>
+        <v>3.753</v>
       </c>
       <c r="C74" t="n">
-        <v>1156323.608</v>
+        <v>860708.7929999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B75" t="n">
-        <v>3.547</v>
+        <v>4.016</v>
       </c>
       <c r="C75" t="n">
-        <v>3177055.696</v>
+        <v>1214479.85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="B76" t="n">
-        <v>3.665</v>
+        <v>4.032</v>
       </c>
       <c r="C76" t="n">
-        <v>649236.635</v>
+        <v>898889.974</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45543</v>
+        <v>45546</v>
       </c>
       <c r="B77" t="n">
-        <v>3.753</v>
+        <v>3.967</v>
       </c>
       <c r="C77" t="n">
-        <v>860708.7929999999</v>
+        <v>1012649.998</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B78" t="n">
-        <v>4.016</v>
+        <v>4.245</v>
       </c>
       <c r="C78" t="n">
-        <v>1214479.85</v>
+        <v>1554349.172</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B79" t="n">
-        <v>4.032</v>
+        <v>4.288</v>
       </c>
       <c r="C79" t="n">
-        <v>898889.974</v>
+        <v>1236825.75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="B80" t="n">
-        <v>3.967</v>
+        <v>4.191</v>
       </c>
       <c r="C80" t="n">
-        <v>1012649.998</v>
+        <v>585828.192</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45547</v>
+        <v>45550</v>
       </c>
       <c r="B81" t="n">
-        <v>4.245</v>
+        <v>4.016</v>
       </c>
       <c r="C81" t="n">
-        <v>1554349.172</v>
+        <v>825515.3419999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="B82" t="n">
-        <v>4.288</v>
+        <v>3.879</v>
       </c>
       <c r="C82" t="n">
-        <v>1236825.75</v>
+        <v>1110834.52</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45549</v>
+        <v>45552</v>
       </c>
       <c r="B83" t="n">
-        <v>4.191</v>
+        <v>4.132</v>
       </c>
       <c r="C83" t="n">
-        <v>585828.192</v>
+        <v>1373226.548</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B84" t="n">
-        <v>4.016</v>
+        <v>4.25</v>
       </c>
       <c r="C84" t="n">
-        <v>825515.3419999999</v>
+        <v>1189242.549</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B85" t="n">
-        <v>3.879</v>
+        <v>4.363</v>
       </c>
       <c r="C85" t="n">
-        <v>1110834.52</v>
+        <v>2481442.218</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B86" t="n">
-        <v>4.132</v>
+        <v>4.386</v>
       </c>
       <c r="C86" t="n">
-        <v>1373226.548</v>
+        <v>1474978.489</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B87" t="n">
-        <v>4.25</v>
+        <v>4.669</v>
       </c>
       <c r="C87" t="n">
-        <v>1189242.549</v>
+        <v>1069844.387</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B88" t="n">
-        <v>4.363</v>
+        <v>4.528</v>
       </c>
       <c r="C88" t="n">
-        <v>2481442.218</v>
+        <v>1590545.612</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B89" t="n">
-        <v>4.386</v>
+        <v>5.172</v>
       </c>
       <c r="C89" t="n">
-        <v>1474978.489</v>
+        <v>5024670.493</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B90" t="n">
-        <v>4.669</v>
+        <v>5.346</v>
       </c>
       <c r="C90" t="n">
-        <v>1069844.387</v>
+        <v>2728890.752</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B91" t="n">
-        <v>4.528</v>
+        <v>5.143</v>
       </c>
       <c r="C91" t="n">
-        <v>1590545.612</v>
+        <v>2014864.371</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B92" t="n">
-        <v>5.172</v>
+        <v>5.55</v>
       </c>
       <c r="C92" t="n">
-        <v>5024670.493</v>
+        <v>4418194.337</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B93" t="n">
-        <v>5.346</v>
+        <v>5.454</v>
       </c>
       <c r="C93" t="n">
-        <v>2728890.752</v>
+        <v>4731723.15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45560</v>
+        <v>45563</v>
       </c>
       <c r="B94" t="n">
-        <v>5.143</v>
+        <v>5.56</v>
       </c>
       <c r="C94" t="n">
-        <v>2014864.371</v>
+        <v>1020656.251</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45561</v>
+        <v>45564</v>
       </c>
       <c r="B95" t="n">
-        <v>5.55</v>
+        <v>5.5</v>
       </c>
       <c r="C95" t="n">
-        <v>4418194.337</v>
+        <v>1036208.555</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="B96" t="n">
-        <v>5.454</v>
+        <v>5.288</v>
       </c>
       <c r="C96" t="n">
-        <v>4731723.15</v>
+        <v>1509951.388</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45563</v>
+        <v>45566</v>
       </c>
       <c r="B97" t="n">
-        <v>5.56</v>
+        <v>4.837</v>
       </c>
       <c r="C97" t="n">
-        <v>1020656.251</v>
+        <v>2434769.974</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45564</v>
+        <v>45567</v>
       </c>
       <c r="B98" t="n">
-        <v>5.5</v>
+        <v>4.626</v>
       </c>
       <c r="C98" t="n">
-        <v>1036208.555</v>
+        <v>1909461.53</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B99" t="n">
-        <v>5.288</v>
+        <v>4.638</v>
       </c>
       <c r="C99" t="n">
-        <v>1509951.388</v>
+        <v>1492231.063</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B100" t="n">
-        <v>4.837</v>
+        <v>4.83</v>
       </c>
       <c r="C100" t="n">
-        <v>2434769.974</v>
+        <v>1325560.189</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="B101" t="n">
-        <v>4.626</v>
+        <v>4.777</v>
       </c>
       <c r="C101" t="n">
-        <v>1909461.53</v>
+        <v>839048.108</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="B102" t="n">
-        <v>4.638</v>
+        <v>4.953</v>
       </c>
       <c r="C102" t="n">
-        <v>1492231.063</v>
+        <v>742209.405</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="B103" t="n">
-        <v>4.83</v>
+        <v>5.041</v>
       </c>
       <c r="C103" t="n">
-        <v>1325560.189</v>
+        <v>1585930.933</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45570</v>
+        <v>45573</v>
       </c>
       <c r="B104" t="n">
-        <v>4.777</v>
+        <v>4.89</v>
       </c>
       <c r="C104" t="n">
-        <v>839048.108</v>
+        <v>1696549.235</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45571</v>
+        <v>45574</v>
       </c>
       <c r="B105" t="n">
-        <v>4.953</v>
+        <v>4.6</v>
       </c>
       <c r="C105" t="n">
-        <v>742209.405</v>
+        <v>1234622.674</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B106" t="n">
-        <v>5.041</v>
+        <v>4.59</v>
       </c>
       <c r="C106" t="n">
-        <v>1585930.933</v>
+        <v>1213093.145</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B107" t="n">
-        <v>4.89</v>
+        <v>4.732</v>
       </c>
       <c r="C107" t="n">
-        <v>1696549.235</v>
+        <v>1611469.979</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45574</v>
+        <v>45577</v>
       </c>
       <c r="B108" t="n">
-        <v>4.6</v>
+        <v>4.842</v>
       </c>
       <c r="C108" t="n">
-        <v>1234622.674</v>
+        <v>1589658.293</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45575</v>
+        <v>45578</v>
       </c>
       <c r="B109" t="n">
-        <v>4.59</v>
+        <v>4.702</v>
       </c>
       <c r="C109" t="n">
-        <v>1213093.145</v>
+        <v>1712669.683</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="B110" t="n">
-        <v>4.732</v>
+        <v>5.023</v>
       </c>
       <c r="C110" t="n">
-        <v>1611469.979</v>
+        <v>1955546.401</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45577</v>
+        <v>45580</v>
       </c>
       <c r="B111" t="n">
-        <v>4.842</v>
+        <v>5.062</v>
       </c>
       <c r="C111" t="n">
-        <v>1589658.293</v>
+        <v>1986612.895</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45578</v>
+        <v>45581</v>
       </c>
       <c r="B112" t="n">
-        <v>4.702</v>
+        <v>4.944</v>
       </c>
       <c r="C112" t="n">
-        <v>1712669.683</v>
+        <v>857656.3689999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45579</v>
+        <v>45582</v>
       </c>
       <c r="B113" t="n">
-        <v>5.023</v>
+        <v>4.766</v>
       </c>
       <c r="C113" t="n">
-        <v>1955546.401</v>
+        <v>1161833.332</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45580</v>
+        <v>45583</v>
       </c>
       <c r="B114" t="n">
-        <v>5.062</v>
+        <v>4.893</v>
       </c>
       <c r="C114" t="n">
-        <v>1986612.895</v>
+        <v>943790.477</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45581</v>
+        <v>45584</v>
       </c>
       <c r="B115" t="n">
-        <v>4.944</v>
+        <v>4.817</v>
       </c>
       <c r="C115" t="n">
-        <v>857656.3689999999</v>
+        <v>722023.5110000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45582</v>
+        <v>45585</v>
       </c>
       <c r="B116" t="n">
-        <v>4.766</v>
+        <v>4.981</v>
       </c>
       <c r="C116" t="n">
-        <v>1161833.332</v>
+        <v>886468.552</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B117" t="n">
-        <v>4.893</v>
+        <v>4.778</v>
       </c>
       <c r="C117" t="n">
-        <v>943790.477</v>
+        <v>955291.226</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45584</v>
+        <v>45587</v>
       </c>
       <c r="B118" t="n">
-        <v>4.817</v>
+        <v>4.676</v>
       </c>
       <c r="C118" t="n">
-        <v>722023.5110000001</v>
+        <v>1068949.631</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45585</v>
+        <v>45588</v>
       </c>
       <c r="B119" t="n">
-        <v>4.981</v>
+        <v>4.646</v>
       </c>
       <c r="C119" t="n">
-        <v>886468.552</v>
+        <v>738537.062</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45586</v>
+        <v>45589</v>
       </c>
       <c r="B120" t="n">
-        <v>4.778</v>
+        <v>4.714</v>
       </c>
       <c r="C120" t="n">
-        <v>955291.226</v>
+        <v>904270.958</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45587</v>
+        <v>45590</v>
       </c>
       <c r="B121" t="n">
-        <v>4.676</v>
+        <v>4.173</v>
       </c>
       <c r="C121" t="n">
-        <v>1068949.631</v>
+        <v>1764228.891</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45588</v>
+        <v>45591</v>
       </c>
       <c r="B122" t="n">
-        <v>4.646</v>
+        <v>4.231</v>
       </c>
       <c r="C122" t="n">
-        <v>738537.062</v>
+        <v>550836.757</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45589</v>
+        <v>45592</v>
       </c>
       <c r="B123" t="n">
-        <v>4.714</v>
+        <v>4.302</v>
       </c>
       <c r="C123" t="n">
-        <v>904270.958</v>
+        <v>320066.475</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="B124" t="n">
-        <v>4.173</v>
+        <v>4.296</v>
       </c>
       <c r="C124" t="n">
-        <v>1764228.891</v>
+        <v>1286231.657</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45591</v>
+        <v>45594</v>
       </c>
       <c r="B125" t="n">
-        <v>4.231</v>
+        <v>4.436</v>
       </c>
       <c r="C125" t="n">
-        <v>550836.757</v>
+        <v>1999606.924</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45592</v>
+        <v>45595</v>
       </c>
       <c r="B126" t="n">
-        <v>4.302</v>
+        <v>4.308</v>
       </c>
       <c r="C126" t="n">
-        <v>320066.475</v>
+        <v>1063076.549</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45593</v>
+        <v>45596</v>
       </c>
       <c r="B127" t="n">
-        <v>4.296</v>
+        <v>4.046</v>
       </c>
       <c r="C127" t="n">
-        <v>1286231.657</v>
+        <v>1658875.439</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45594</v>
+        <v>45597</v>
       </c>
       <c r="B128" t="n">
-        <v>4.436</v>
+        <v>3.927</v>
       </c>
       <c r="C128" t="n">
-        <v>1999606.924</v>
+        <v>1904579.026</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45595</v>
+        <v>45598</v>
       </c>
       <c r="B129" t="n">
-        <v>4.308</v>
+        <v>3.81</v>
       </c>
       <c r="C129" t="n">
-        <v>1063076.549</v>
+        <v>911274.62</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45596</v>
+        <v>45599</v>
       </c>
       <c r="B130" t="n">
-        <v>4.046</v>
+        <v>3.687</v>
       </c>
       <c r="C130" t="n">
-        <v>1658875.439</v>
+        <v>958935.577</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="B131" t="n">
-        <v>3.927</v>
+        <v>3.619</v>
       </c>
       <c r="C131" t="n">
-        <v>1904579.026</v>
+        <v>1086856.064</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45598</v>
+        <v>45601</v>
       </c>
       <c r="B132" t="n">
         <v>3.81</v>
       </c>
       <c r="C132" t="n">
-        <v>911274.62</v>
+        <v>1068546.507</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45599</v>
+        <v>45602</v>
       </c>
       <c r="B133" t="n">
-        <v>3.687</v>
+        <v>4.235</v>
       </c>
       <c r="C133" t="n">
-        <v>958935.577</v>
+        <v>2164490.303</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45600</v>
+        <v>45603</v>
       </c>
       <c r="B134" t="n">
-        <v>3.619</v>
+        <v>4.232</v>
       </c>
       <c r="C134" t="n">
-        <v>1086856.064</v>
+        <v>2132198.763</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="B135" t="n">
-        <v>3.81</v>
+        <v>4.332</v>
       </c>
       <c r="C135" t="n">
-        <v>1068546.507</v>
+        <v>2924313.722</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45602</v>
+        <v>45605</v>
       </c>
       <c r="B136" t="n">
-        <v>4.235</v>
+        <v>4.638</v>
       </c>
       <c r="C136" t="n">
-        <v>2164490.303</v>
+        <v>2860673.845</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="B137" t="n">
-        <v>4.232</v>
+        <v>4.723</v>
       </c>
       <c r="C137" t="n">
-        <v>2132198.763</v>
+        <v>3420387.475</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="B138" t="n">
-        <v>4.332</v>
+        <v>5.567</v>
       </c>
       <c r="C138" t="n">
-        <v>2924313.722</v>
+        <v>4999568.653</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="B139" t="n">
-        <v>4.638</v>
+        <v>5.336</v>
       </c>
       <c r="C139" t="n">
-        <v>2860673.845</v>
+        <v>7040291.259</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45606</v>
+        <v>45609</v>
       </c>
       <c r="B140" t="n">
-        <v>4.723</v>
+        <v>5.175</v>
       </c>
       <c r="C140" t="n">
-        <v>3420387.475</v>
+        <v>3037296.411</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="B141" t="n">
-        <v>5.567</v>
+        <v>5.411</v>
       </c>
       <c r="C141" t="n">
-        <v>4999568.653</v>
+        <v>3304977.378</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45608</v>
+        <v>45611</v>
       </c>
       <c r="B142" t="n">
-        <v>5.336</v>
+        <v>5.558</v>
       </c>
       <c r="C142" t="n">
-        <v>7040291.259</v>
+        <v>2122341.783</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B143" t="n">
-        <v>5.175</v>
+        <v>5.955</v>
       </c>
       <c r="C143" t="n">
-        <v>3037296.411</v>
+        <v>3423339.853</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45610</v>
+        <v>45613</v>
       </c>
       <c r="B144" t="n">
-        <v>5.411</v>
+        <v>5.704</v>
       </c>
       <c r="C144" t="n">
-        <v>3304977.378</v>
+        <v>2304247.38</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B145" t="n">
-        <v>5.558</v>
+        <v>6.024</v>
       </c>
       <c r="C145" t="n">
-        <v>2122341.783</v>
+        <v>2165866.029</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="B146" t="n">
-        <v>5.955</v>
+        <v>5.787</v>
       </c>
       <c r="C146" t="n">
-        <v>3423339.853</v>
+        <v>1781761.723</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="B147" t="n">
-        <v>5.704</v>
+        <v>5.482</v>
       </c>
       <c r="C147" t="n">
-        <v>2304247.38</v>
+        <v>1810529.385</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="B148" t="n">
-        <v>6.024</v>
+        <v>5.793</v>
       </c>
       <c r="C148" t="n">
-        <v>2165866.029</v>
+        <v>1637733.124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="B149" t="n">
-        <v>5.787</v>
+        <v>6.141</v>
       </c>
       <c r="C149" t="n">
-        <v>1781761.723</v>
+        <v>2740302.241</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45616</v>
+        <v>45619</v>
       </c>
       <c r="B150" t="n">
-        <v>5.482</v>
+        <v>6.195</v>
       </c>
       <c r="C150" t="n">
-        <v>1810529.385</v>
+        <v>3813541.75</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45617</v>
+        <v>45620</v>
       </c>
       <c r="B151" t="n">
-        <v>5.793</v>
+        <v>6.878</v>
       </c>
       <c r="C151" t="n">
-        <v>1637733.124</v>
+        <v>3319814.714</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="B152" t="n">
-        <v>6.141</v>
+        <v>6.457</v>
       </c>
       <c r="C152" t="n">
-        <v>2740302.241</v>
+        <v>5673987.518</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45619</v>
+        <v>45622</v>
       </c>
       <c r="B153" t="n">
-        <v>6.195</v>
+        <v>6.518</v>
       </c>
       <c r="C153" t="n">
-        <v>3813541.75</v>
+        <v>3364114.449</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="B154" t="n">
-        <v>6.878</v>
+        <v>6.819</v>
       </c>
       <c r="C154" t="n">
-        <v>3319814.714</v>
+        <v>2745734.087</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="B155" t="n">
-        <v>6.457</v>
+        <v>7.013</v>
       </c>
       <c r="C155" t="n">
-        <v>5673987.518</v>
+        <v>2727244.574</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="B156" t="n">
-        <v>6.518</v>
+        <v>6.964</v>
       </c>
       <c r="C156" t="n">
-        <v>3364114.449</v>
+        <v>2493050.485</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="B157" t="n">
-        <v>6.819</v>
+        <v>7.01</v>
       </c>
       <c r="C157" t="n">
-        <v>2745734.087</v>
+        <v>2701931.121</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45624</v>
+        <v>45627</v>
       </c>
       <c r="B158" t="n">
-        <v>7.013</v>
+        <v>6.923</v>
       </c>
       <c r="C158" t="n">
-        <v>2727244.574</v>
+        <v>1751226.429</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="B159" t="n">
-        <v>6.964</v>
+        <v>7.498</v>
       </c>
       <c r="C159" t="n">
-        <v>2493050.485</v>
+        <v>4776314.6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="B160" t="n">
-        <v>7.01</v>
+        <v>7.389</v>
       </c>
       <c r="C160" t="n">
-        <v>2701931.121</v>
+        <v>4637141.935</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="B161" t="n">
-        <v>6.923</v>
+        <v>7.484</v>
       </c>
       <c r="C161" t="n">
-        <v>1751226.429</v>
+        <v>2820716.744</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="B162" t="n">
-        <v>7.498</v>
+        <v>7.622</v>
       </c>
       <c r="C162" t="n">
-        <v>4776314.6</v>
+        <v>5558999.92</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="B163" t="n">
-        <v>7.389</v>
+        <v>8.032</v>
       </c>
       <c r="C163" t="n">
-        <v>4637141.935</v>
+        <v>3482990.216</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="B164" t="n">
-        <v>7.484</v>
+        <v>7.729</v>
       </c>
       <c r="C164" t="n">
-        <v>2820716.744</v>
+        <v>2345779.209</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="B165" t="n">
-        <v>7.622</v>
+        <v>7.831</v>
       </c>
       <c r="C165" t="n">
-        <v>5558999.92</v>
+        <v>1166635.979</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="B166" t="n">
-        <v>8.032</v>
+        <v>6.511</v>
       </c>
       <c r="C166" t="n">
-        <v>3482990.216</v>
+        <v>3536621.908</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="B167" t="n">
-        <v>7.729</v>
+        <v>6.427</v>
       </c>
       <c r="C167" t="n">
-        <v>2345779.209</v>
+        <v>5464195.786</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45634</v>
+        <v>45637</v>
       </c>
       <c r="B168" t="n">
-        <v>7.831</v>
+        <v>6.856</v>
       </c>
       <c r="C168" t="n">
-        <v>1166635.979</v>
+        <v>2637934.576</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="B169" t="n">
-        <v>6.511</v>
+        <v>6.91</v>
       </c>
       <c r="C169" t="n">
-        <v>3536621.908</v>
+        <v>2781427.272</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="B170" t="n">
-        <v>6.427</v>
+        <v>6.938</v>
       </c>
       <c r="C170" t="n">
-        <v>5464195.786</v>
+        <v>2104692.862</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="B171" t="n">
-        <v>6.856</v>
+        <v>6.684</v>
       </c>
       <c r="C171" t="n">
-        <v>2637934.576</v>
+        <v>1980352.639</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="B172" t="n">
-        <v>6.91</v>
+        <v>6.854</v>
       </c>
       <c r="C172" t="n">
-        <v>2781427.272</v>
+        <v>1192138.044</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="B173" t="n">
-        <v>6.938</v>
+        <v>6.621</v>
       </c>
       <c r="C173" t="n">
-        <v>2104692.862</v>
+        <v>2582388.613</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45640</v>
+        <v>45643</v>
       </c>
       <c r="B174" t="n">
-        <v>6.684</v>
+        <v>6.383</v>
       </c>
       <c r="C174" t="n">
-        <v>1980352.639</v>
+        <v>2400470.758</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45641</v>
+        <v>45644</v>
       </c>
       <c r="B175" t="n">
-        <v>6.854</v>
+        <v>5.688</v>
       </c>
       <c r="C175" t="n">
-        <v>1192138.044</v>
+        <v>2566024.066</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45642</v>
+        <v>45645</v>
       </c>
       <c r="B176" t="n">
-        <v>6.621</v>
+        <v>5.198</v>
       </c>
       <c r="C176" t="n">
-        <v>2582388.613</v>
+        <v>3850456.879</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45643</v>
+        <v>45646</v>
       </c>
       <c r="B177" t="n">
-        <v>6.383</v>
+        <v>5.351</v>
       </c>
       <c r="C177" t="n">
-        <v>2400470.758</v>
+        <v>4059189.695</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45644</v>
+        <v>45647</v>
       </c>
       <c r="B178" t="n">
-        <v>5.688</v>
+        <v>5.022</v>
       </c>
       <c r="C178" t="n">
-        <v>2566024.066</v>
+        <v>2393430.262</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45645</v>
+        <v>45648</v>
       </c>
       <c r="B179" t="n">
-        <v>5.198</v>
+        <v>5.034</v>
       </c>
       <c r="C179" t="n">
-        <v>3850456.879</v>
+        <v>1516431.701</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B180" t="n">
-        <v>5.351</v>
+        <v>5.436</v>
       </c>
       <c r="C180" t="n">
-        <v>4059189.695</v>
+        <v>1523192.053</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45647</v>
+        <v>45650</v>
       </c>
       <c r="B181" t="n">
-        <v>5.022</v>
+        <v>5.548</v>
       </c>
       <c r="C181" t="n">
-        <v>2393430.262</v>
+        <v>1398396.781</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45648</v>
+        <v>45651</v>
       </c>
       <c r="B182" t="n">
-        <v>5.034</v>
+        <v>5.441</v>
       </c>
       <c r="C182" t="n">
-        <v>1516431.701</v>
+        <v>965165.3909999999</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="B183" t="n">
-        <v>5.436</v>
+        <v>5.079</v>
       </c>
       <c r="C183" t="n">
-        <v>1523192.053</v>
+        <v>954911.933</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="B184" t="n">
-        <v>5.548</v>
+        <v>5.109</v>
       </c>
       <c r="C184" t="n">
-        <v>1398396.781</v>
+        <v>941089.187</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45651</v>
+        <v>45654</v>
       </c>
       <c r="B185" t="n">
-        <v>5.441</v>
+        <v>5.333</v>
       </c>
       <c r="C185" t="n">
-        <v>965165.3909999999</v>
+        <v>680717.715</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45652</v>
+        <v>45655</v>
       </c>
       <c r="B186" t="n">
-        <v>5.079</v>
+        <v>5.119</v>
       </c>
       <c r="C186" t="n">
-        <v>954911.933</v>
+        <v>804654.333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="B187" t="n">
-        <v>5.109</v>
+        <v>5.037</v>
       </c>
       <c r="C187" t="n">
-        <v>941089.187</v>
+        <v>1727798.537</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45654</v>
+        <v>45657</v>
       </c>
       <c r="B188" t="n">
-        <v>5.333</v>
+        <v>4.894</v>
       </c>
       <c r="C188" t="n">
-        <v>680717.715</v>
+        <v>2005362.208</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45655</v>
+        <v>45658</v>
       </c>
       <c r="B189" t="n">
-        <v>5.119</v>
+        <v>5.273</v>
       </c>
       <c r="C189" t="n">
-        <v>804654.333</v>
+        <v>1481013.441</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45656</v>
+        <v>45659</v>
       </c>
       <c r="B190" t="n">
-        <v>5.037</v>
+        <v>5.441</v>
       </c>
       <c r="C190" t="n">
-        <v>1727798.537</v>
+        <v>1384359.52</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45657</v>
+        <v>45660</v>
       </c>
       <c r="B191" t="n">
-        <v>4.894</v>
+        <v>5.815</v>
       </c>
       <c r="C191" t="n">
-        <v>2005362.208</v>
+        <v>1592601.965</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45658</v>
+        <v>45661</v>
       </c>
       <c r="B192" t="n">
-        <v>5.273</v>
+        <v>5.787</v>
       </c>
       <c r="C192" t="n">
-        <v>1481013.441</v>
+        <v>871628.338</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45659</v>
+        <v>45662</v>
       </c>
       <c r="B193" t="n">
-        <v>5.441</v>
+        <v>5.907</v>
       </c>
       <c r="C193" t="n">
-        <v>1384359.52</v>
+        <v>925904.722</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B194" t="n">
-        <v>5.815</v>
+        <v>6.015</v>
       </c>
       <c r="C194" t="n">
-        <v>1592601.965</v>
+        <v>2017750.228</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45661</v>
+        <v>45664</v>
       </c>
       <c r="B195" t="n">
-        <v>5.787</v>
+        <v>5.363</v>
       </c>
       <c r="C195" t="n">
-        <v>871628.338</v>
+        <v>1690138.828</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45662</v>
+        <v>45665</v>
       </c>
       <c r="B196" t="n">
-        <v>5.907</v>
+        <v>5.153</v>
       </c>
       <c r="C196" t="n">
-        <v>925904.722</v>
+        <v>1569412.588</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45663</v>
+        <v>45666</v>
       </c>
       <c r="B197" t="n">
-        <v>6.015</v>
+        <v>4.976</v>
       </c>
       <c r="C197" t="n">
-        <v>2017750.228</v>
+        <v>2176999.15</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45664</v>
+        <v>45667</v>
       </c>
       <c r="B198" t="n">
-        <v>5.363</v>
+        <v>5.082</v>
       </c>
       <c r="C198" t="n">
-        <v>1690138.828</v>
+        <v>1609684.223</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45665</v>
+        <v>45668</v>
       </c>
       <c r="B199" t="n">
-        <v>5.153</v>
+        <v>5.082</v>
       </c>
       <c r="C199" t="n">
-        <v>1569412.588</v>
+        <v>512401.359</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45666</v>
+        <v>45669</v>
       </c>
       <c r="B200" t="n">
-        <v>4.976</v>
+        <v>4.969</v>
       </c>
       <c r="C200" t="n">
-        <v>2176999.15</v>
+        <v>433410.496</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B201" t="n">
-        <v>5.082</v>
+        <v>4.751</v>
       </c>
       <c r="C201" t="n">
-        <v>1609684.223</v>
+        <v>2145362.436</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45668</v>
+        <v>45671</v>
       </c>
       <c r="B202" t="n">
-        <v>5.082</v>
+        <v>5.051</v>
       </c>
       <c r="C202" t="n">
-        <v>512401.359</v>
+        <v>1136974.175</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45669</v>
+        <v>45672</v>
       </c>
       <c r="B203" t="n">
-        <v>4.969</v>
+        <v>5.316</v>
       </c>
       <c r="C203" t="n">
-        <v>433410.496</v>
+        <v>1705690.623</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45670</v>
+        <v>45673</v>
       </c>
       <c r="B204" t="n">
-        <v>4.751</v>
+        <v>5.157</v>
       </c>
       <c r="C204" t="n">
-        <v>2145362.436</v>
+        <v>2087757.452</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B205" t="n">
-        <v>5.051</v>
+        <v>5.756</v>
       </c>
       <c r="C205" t="n">
-        <v>1136974.175</v>
+        <v>1939886.804</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45672</v>
+        <v>45675</v>
       </c>
       <c r="B206" t="n">
-        <v>5.316</v>
+        <v>5.439</v>
       </c>
       <c r="C206" t="n">
-        <v>1705690.623</v>
+        <v>2454636.449</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45673</v>
+        <v>45676</v>
       </c>
       <c r="B207" t="n">
-        <v>5.157</v>
+        <v>4.976</v>
       </c>
       <c r="C207" t="n">
-        <v>2087757.452</v>
+        <v>3002656.819</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B208" t="n">
-        <v>5.756</v>
+        <v>5.091</v>
       </c>
       <c r="C208" t="n">
-        <v>1939886.804</v>
+        <v>3392919.006</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45675</v>
+        <v>45678</v>
       </c>
       <c r="B209" t="n">
-        <v>5.439</v>
+        <v>5.251</v>
       </c>
       <c r="C209" t="n">
-        <v>2454636.449</v>
+        <v>1851743.846</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45676</v>
+        <v>45679</v>
       </c>
       <c r="B210" t="n">
-        <v>4.976</v>
+        <v>5.093</v>
       </c>
       <c r="C210" t="n">
-        <v>3002656.819</v>
+        <v>1592320.165</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45677</v>
+        <v>45680</v>
       </c>
       <c r="B211" t="n">
-        <v>5.091</v>
+        <v>4.98</v>
       </c>
       <c r="C211" t="n">
-        <v>3392919.006</v>
+        <v>2551851.942</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45678</v>
+        <v>45681</v>
       </c>
       <c r="B212" t="n">
-        <v>5.251</v>
+        <v>5.001</v>
       </c>
       <c r="C212" t="n">
-        <v>1851743.846</v>
+        <v>1815038.941</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45679</v>
+        <v>45682</v>
       </c>
       <c r="B213" t="n">
-        <v>5.093</v>
+        <v>4.926</v>
       </c>
       <c r="C213" t="n">
-        <v>1592320.165</v>
+        <v>1033072.569</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45680</v>
+        <v>45683</v>
       </c>
       <c r="B214" t="n">
-        <v>4.98</v>
+        <v>4.759</v>
       </c>
       <c r="C214" t="n">
-        <v>2551851.942</v>
+        <v>1242559.092</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B215" t="n">
-        <v>5.001</v>
+        <v>4.639</v>
       </c>
       <c r="C215" t="n">
-        <v>1815038.941</v>
+        <v>2685496.792</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45682</v>
+        <v>45685</v>
       </c>
       <c r="B216" t="n">
-        <v>4.926</v>
+        <v>4.281</v>
       </c>
       <c r="C216" t="n">
-        <v>1033072.569</v>
+        <v>1413071.672</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45683</v>
+        <v>45686</v>
       </c>
       <c r="B217" t="n">
-        <v>4.759</v>
+        <v>4.417</v>
       </c>
       <c r="C217" t="n">
-        <v>1242559.092</v>
+        <v>1401071.261</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B218" t="n">
-        <v>4.639</v>
+        <v>4.603</v>
       </c>
       <c r="C218" t="n">
-        <v>2685496.792</v>
+        <v>1307311.069</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45685</v>
+        <v>45688</v>
       </c>
       <c r="B219" t="n">
-        <v>4.281</v>
+        <v>4.619</v>
       </c>
       <c r="C219" t="n">
-        <v>1413071.672</v>
+        <v>1629259.108</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45686</v>
+        <v>45689</v>
       </c>
       <c r="B220" t="n">
-        <v>4.417</v>
+        <v>4.257</v>
       </c>
       <c r="C220" t="n">
-        <v>1401071.261</v>
+        <v>1182041.599</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45687</v>
+        <v>45690</v>
       </c>
       <c r="B221" t="n">
-        <v>4.603</v>
+        <v>3.749</v>
       </c>
       <c r="C221" t="n">
-        <v>1307311.069</v>
+        <v>3075768.114</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B222" t="n">
-        <v>4.619</v>
+        <v>3.778</v>
       </c>
       <c r="C222" t="n">
-        <v>1629259.108</v>
+        <v>5308367.055</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="B223" t="n">
-        <v>4.257</v>
+        <v>3.395</v>
       </c>
       <c r="C223" t="n">
-        <v>1182041.599</v>
+        <v>2848517.988</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45690</v>
+        <v>45693</v>
       </c>
       <c r="B224" t="n">
-        <v>3.749</v>
+        <v>3.28</v>
       </c>
       <c r="C224" t="n">
-        <v>3075768.114</v>
+        <v>1825349.561</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="B225" t="n">
-        <v>3.778</v>
+        <v>3.144</v>
       </c>
       <c r="C225" t="n">
-        <v>5308367.055</v>
+        <v>2239696.558</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45692</v>
+        <v>45695</v>
       </c>
       <c r="B226" t="n">
-        <v>3.395</v>
+        <v>3.206</v>
       </c>
       <c r="C226" t="n">
-        <v>2848517.988</v>
+        <v>1972073.702</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45693</v>
+        <v>45696</v>
       </c>
       <c r="B227" t="n">
-        <v>3.28</v>
+        <v>3.285</v>
       </c>
       <c r="C227" t="n">
-        <v>1825349.561</v>
+        <v>1740497.768</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45694</v>
+        <v>45697</v>
       </c>
       <c r="B228" t="n">
-        <v>3.144</v>
+        <v>3.178</v>
       </c>
       <c r="C228" t="n">
-        <v>2239696.558</v>
+        <v>2005467.402</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B229" t="n">
-        <v>3.206</v>
+        <v>3.208</v>
       </c>
       <c r="C229" t="n">
-        <v>1972073.702</v>
+        <v>1773575.934</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45696</v>
+        <v>45699</v>
       </c>
       <c r="B230" t="n">
-        <v>3.285</v>
+        <v>3.201</v>
       </c>
       <c r="C230" t="n">
-        <v>1740497.768</v>
+        <v>1576080.408</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45697</v>
+        <v>45700</v>
       </c>
       <c r="B231" t="n">
-        <v>3.178</v>
+        <v>3.431</v>
       </c>
       <c r="C231" t="n">
-        <v>2005467.402</v>
+        <v>2377345.192</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45698</v>
+        <v>45701</v>
       </c>
       <c r="B232" t="n">
-        <v>3.208</v>
+        <v>3.376</v>
       </c>
       <c r="C232" t="n">
-        <v>1773575.934</v>
+        <v>1636376.576</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B233" t="n">
-        <v>3.201</v>
+        <v>3.551</v>
       </c>
       <c r="C233" t="n">
-        <v>1576080.408</v>
+        <v>1502509.705</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45700</v>
+        <v>45703</v>
       </c>
       <c r="B234" t="n">
-        <v>3.431</v>
+        <v>3.404</v>
       </c>
       <c r="C234" t="n">
-        <v>2377345.192</v>
+        <v>1088372.936</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45701</v>
+        <v>45704</v>
       </c>
       <c r="B235" t="n">
-        <v>3.376</v>
+        <v>3.412</v>
       </c>
       <c r="C235" t="n">
-        <v>1636376.576</v>
+        <v>1109252.019</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B236" t="n">
-        <v>3.551</v>
+        <v>3.258</v>
       </c>
       <c r="C236" t="n">
-        <v>1502509.705</v>
+        <v>1649399.295</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45703</v>
+        <v>45706</v>
       </c>
       <c r="B237" t="n">
-        <v>3.404</v>
+        <v>3.139</v>
       </c>
       <c r="C237" t="n">
-        <v>1088372.936</v>
+        <v>1529287.018</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45704</v>
+        <v>45707</v>
       </c>
       <c r="B238" t="n">
-        <v>3.412</v>
+        <v>3.158</v>
       </c>
       <c r="C238" t="n">
-        <v>1109252.019</v>
+        <v>738077.8149999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B239" t="n">
-        <v>3.258</v>
+        <v>3.473</v>
       </c>
       <c r="C239" t="n">
-        <v>1649399.295</v>
+        <v>1795506.423</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45706</v>
+        <v>45709</v>
       </c>
       <c r="B240" t="n">
-        <v>3.139</v>
+        <v>3.308</v>
       </c>
       <c r="C240" t="n">
-        <v>1529287.018</v>
+        <v>2190934.495</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45707</v>
+        <v>45710</v>
       </c>
       <c r="B241" t="n">
-        <v>3.158</v>
+        <v>3.469</v>
       </c>
       <c r="C241" t="n">
-        <v>738077.8149999999</v>
+        <v>1593783.085</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45708</v>
+        <v>45711</v>
       </c>
       <c r="B242" t="n">
-        <v>3.473</v>
+        <v>3.434</v>
       </c>
       <c r="C242" t="n">
-        <v>1795506.423</v>
+        <v>1026613.821</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B243" t="n">
-        <v>3.308</v>
+        <v>3.063</v>
       </c>
       <c r="C243" t="n">
-        <v>2190934.495</v>
+        <v>1846323.433</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45710</v>
+        <v>45713</v>
       </c>
       <c r="B244" t="n">
-        <v>3.469</v>
+        <v>3.005</v>
       </c>
       <c r="C244" t="n">
-        <v>1593783.085</v>
+        <v>2893419.077</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45711</v>
+        <v>45714</v>
       </c>
       <c r="B245" t="n">
-        <v>3.434</v>
+        <v>3.017</v>
       </c>
       <c r="C245" t="n">
-        <v>1026613.821</v>
+        <v>1494605.372</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45712</v>
+        <v>45715</v>
       </c>
       <c r="B246" t="n">
-        <v>3.063</v>
+        <v>3.055</v>
       </c>
       <c r="C246" t="n">
-        <v>1846323.433</v>
+        <v>1439406.959</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45713</v>
+        <v>45716</v>
       </c>
       <c r="B247" t="n">
-        <v>3.005</v>
+        <v>3.069</v>
       </c>
       <c r="C247" t="n">
-        <v>2893419.077</v>
+        <v>1974740.335</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45714</v>
+        <v>45717</v>
       </c>
       <c r="B248" t="n">
-        <v>3.017</v>
+        <v>3.27</v>
       </c>
       <c r="C248" t="n">
-        <v>1494605.372</v>
+        <v>1484101.327</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45715</v>
+        <v>45718</v>
       </c>
       <c r="B249" t="n">
-        <v>3.055</v>
+        <v>3.554</v>
       </c>
       <c r="C249" t="n">
-        <v>1439406.959</v>
+        <v>1908175.73</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B250" t="n">
-        <v>3.069</v>
+        <v>2.969</v>
       </c>
       <c r="C250" t="n">
-        <v>1974740.335</v>
+        <v>2276176.829</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45717</v>
+        <v>45720</v>
       </c>
       <c r="B251" t="n">
-        <v>3.27</v>
+        <v>2.812</v>
       </c>
       <c r="C251" t="n">
-        <v>1484101.327</v>
+        <v>2890659.985</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45718</v>
+        <v>45721</v>
       </c>
       <c r="B252" t="n">
-        <v>3.554</v>
+        <v>2.99</v>
       </c>
       <c r="C252" t="n">
-        <v>1908175.73</v>
+        <v>2178978.583</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45719</v>
+        <v>45722</v>
       </c>
       <c r="B253" t="n">
-        <v>2.969</v>
+        <v>3.058</v>
       </c>
       <c r="C253" t="n">
-        <v>2276176.829</v>
+        <v>1873240.293</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45720</v>
+        <v>45723</v>
       </c>
       <c r="B254" t="n">
-        <v>2.812</v>
+        <v>2.939</v>
       </c>
       <c r="C254" t="n">
-        <v>2890659.985</v>
+        <v>2005374.057</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45721</v>
+        <v>45724</v>
       </c>
       <c r="B255" t="n">
-        <v>2.99</v>
+        <v>2.885</v>
       </c>
       <c r="C255" t="n">
-        <v>2178978.583</v>
+        <v>1411430.855</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45722</v>
+        <v>45725</v>
       </c>
       <c r="B256" t="n">
-        <v>3.058</v>
+        <v>2.552</v>
       </c>
       <c r="C256" t="n">
-        <v>1873240.293</v>
+        <v>1678253.664</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B257" t="n">
-        <v>2.939</v>
+        <v>2.284</v>
       </c>
       <c r="C257" t="n">
-        <v>2005374.057</v>
+        <v>2510233.1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45724</v>
+        <v>45727</v>
       </c>
       <c r="B258" t="n">
-        <v>2.885</v>
+        <v>2.449</v>
       </c>
       <c r="C258" t="n">
-        <v>1411430.855</v>
+        <v>2843558.271</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45725</v>
+        <v>45728</v>
       </c>
       <c r="B259" t="n">
-        <v>2.552</v>
+        <v>2.557</v>
       </c>
       <c r="C259" t="n">
-        <v>1678253.664</v>
+        <v>3208827.605</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45726</v>
+        <v>45729</v>
       </c>
       <c r="B260" t="n">
-        <v>2.284</v>
+        <v>2.571</v>
       </c>
       <c r="C260" t="n">
-        <v>2510233.1</v>
+        <v>2366580.458</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45727</v>
+        <v>45730</v>
       </c>
       <c r="B261" t="n">
-        <v>2.449</v>
+        <v>2.609</v>
       </c>
       <c r="C261" t="n">
-        <v>2843558.271</v>
+        <v>2387909.66</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45728</v>
+        <v>45731</v>
       </c>
       <c r="B262" t="n">
-        <v>2.557</v>
+        <v>2.643</v>
       </c>
       <c r="C262" t="n">
-        <v>3208827.605</v>
+        <v>1026538.38</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45729</v>
+        <v>45732</v>
       </c>
       <c r="B263" t="n">
-        <v>2.571</v>
+        <v>2.516</v>
       </c>
       <c r="C263" t="n">
-        <v>2366580.458</v>
+        <v>1563536.931</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B264" t="n">
-        <v>2.609</v>
+        <v>2.638</v>
       </c>
       <c r="C264" t="n">
-        <v>2387909.66</v>
+        <v>1355227.7</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45731</v>
+        <v>45734</v>
       </c>
       <c r="B265" t="n">
-        <v>2.643</v>
+        <v>2.585</v>
       </c>
       <c r="C265" t="n">
-        <v>1026538.38</v>
+        <v>960469.257</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45732</v>
+        <v>45735</v>
       </c>
       <c r="B266" t="n">
-        <v>2.516</v>
+        <v>2.793</v>
       </c>
       <c r="C266" t="n">
-        <v>1563536.931</v>
+        <v>1645478.721</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="B267" t="n">
-        <v>2.638</v>
+        <v>2.739</v>
       </c>
       <c r="C267" t="n">
-        <v>1355227.7</v>
+        <v>758491.2439999999</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45734</v>
+        <v>45737</v>
       </c>
       <c r="B268" t="n">
-        <v>2.585</v>
+        <v>2.713</v>
       </c>
       <c r="C268" t="n">
-        <v>960469.257</v>
+        <v>876569.566</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45735</v>
+        <v>45738</v>
       </c>
       <c r="B269" t="n">
-        <v>2.793</v>
+        <v>2.73</v>
       </c>
       <c r="C269" t="n">
-        <v>1645478.721</v>
+        <v>917600.424</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45736</v>
+        <v>45739</v>
       </c>
       <c r="B270" t="n">
-        <v>2.739</v>
+        <v>2.777</v>
       </c>
       <c r="C270" t="n">
-        <v>758491.2439999999</v>
+        <v>445336.516</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B271" t="n">
-        <v>2.713</v>
+        <v>2.922</v>
       </c>
       <c r="C271" t="n">
-        <v>876569.566</v>
+        <v>1714797.369</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45738</v>
+        <v>45741</v>
       </c>
       <c r="B272" t="n">
-        <v>2.73</v>
+        <v>3.027</v>
       </c>
       <c r="C272" t="n">
-        <v>917600.424</v>
+        <v>1066076.419</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45739</v>
+        <v>45742</v>
       </c>
       <c r="B273" t="n">
-        <v>2.777</v>
+        <v>2.986</v>
       </c>
       <c r="C273" t="n">
-        <v>445336.516</v>
+        <v>916514.178</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B274" t="n">
-        <v>2.922</v>
+        <v>3.012</v>
       </c>
       <c r="C274" t="n">
-        <v>1714797.369</v>
+        <v>22287.176</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B275" t="n">
-        <v>3.027</v>
+        <v>2.728</v>
       </c>
       <c r="C275" t="n">
-        <v>1066076.419</v>
+        <v>2666062.85</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45742</v>
+        <v>45745</v>
       </c>
       <c r="B276" t="n">
-        <v>2.986</v>
+        <v>2.565</v>
       </c>
       <c r="C276" t="n">
-        <v>916514.178</v>
+        <v>849233.243</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="B277" t="n">
-        <v>3.012</v>
+        <v>2.591</v>
       </c>
       <c r="C277" t="n">
-        <v>22287.176</v>
+        <v>1295156.863</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B278" t="n">
-        <v>2.728</v>
+        <v>2.508</v>
       </c>
       <c r="C278" t="n">
-        <v>2666062.85</v>
+        <v>1797197.934</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="B279" t="n">
-        <v>2.565</v>
+        <v>2.65</v>
       </c>
       <c r="C279" t="n">
-        <v>849233.243</v>
+        <v>1315026.496</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="B280" t="n">
-        <v>2.591</v>
+        <v>2.449</v>
       </c>
       <c r="C280" t="n">
-        <v>1295156.863</v>
+        <v>1571642.55</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="B281" t="n">
-        <v>2.508</v>
+        <v>2.507</v>
       </c>
       <c r="C281" t="n">
-        <v>1797197.934</v>
+        <v>1308817.618</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="B282" t="n">
-        <v>2.65</v>
+        <v>2.506</v>
       </c>
       <c r="C282" t="n">
-        <v>1315026.496</v>
+        <v>1339467.091</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="B283" t="n">
-        <v>2.449</v>
+        <v>2.441</v>
       </c>
       <c r="C283" t="n">
-        <v>1571642.55</v>
+        <v>713284.821</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45750</v>
+        <v>45753</v>
       </c>
       <c r="B284" t="n">
-        <v>2.507</v>
+        <v>2.16</v>
       </c>
       <c r="C284" t="n">
-        <v>1308817.618</v>
+        <v>1156013.479</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45751</v>
+        <v>45754</v>
       </c>
       <c r="B285" t="n">
-        <v>2.506</v>
+        <v>2.118</v>
       </c>
       <c r="C285" t="n">
-        <v>1339467.091</v>
+        <v>3292506.895</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45752</v>
+        <v>45755</v>
       </c>
       <c r="B286" t="n">
-        <v>2.441</v>
+        <v>1.906</v>
       </c>
       <c r="C286" t="n">
-        <v>713284.821</v>
+        <v>2026530.202</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45753</v>
+        <v>45756</v>
       </c>
       <c r="B287" t="n">
-        <v>2.16</v>
+        <v>2.102</v>
       </c>
       <c r="C287" t="n">
-        <v>1156013.479</v>
+        <v>3233390.944</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45754</v>
+        <v>45757</v>
       </c>
       <c r="B288" t="n">
-        <v>2.118</v>
+        <v>2.002</v>
       </c>
       <c r="C288" t="n">
-        <v>3292506.895</v>
+        <v>1392097.835</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="B289" t="n">
-        <v>1.906</v>
+        <v>2.088</v>
       </c>
       <c r="C289" t="n">
-        <v>2026530.202</v>
+        <v>1036600.799</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="B290" t="n">
-        <v>2.102</v>
+        <v>2.213</v>
       </c>
       <c r="C290" t="n">
-        <v>3233390.944</v>
+        <v>1897360.545</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="B291" t="n">
-        <v>2.002</v>
+        <v>2.093</v>
       </c>
       <c r="C291" t="n">
-        <v>1392097.835</v>
+        <v>1214261.109</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B292" t="n">
-        <v>2.088</v>
+        <v>2.115</v>
       </c>
       <c r="C292" t="n">
-        <v>1036600.799</v>
+        <v>1231688.593</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B293" t="n">
-        <v>2.213</v>
+        <v>2.036</v>
       </c>
       <c r="C293" t="n">
-        <v>1897360.545</v>
+        <v>1045400.972</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45760</v>
+        <v>45763</v>
       </c>
       <c r="B294" t="n">
-        <v>2.093</v>
+        <v>1.967</v>
       </c>
       <c r="C294" t="n">
-        <v>1214261.109</v>
+        <v>1225921.513</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45761</v>
+        <v>45764</v>
       </c>
       <c r="B295" t="n">
-        <v>2.115</v>
+        <v>2.053</v>
       </c>
       <c r="C295" t="n">
-        <v>1231688.593</v>
+        <v>1055239.434</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45762</v>
+        <v>45765</v>
       </c>
       <c r="B296" t="n">
-        <v>2.036</v>
+        <v>2.055</v>
       </c>
       <c r="C296" t="n">
-        <v>1045400.972</v>
+        <v>673529.705</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45763</v>
+        <v>45766</v>
       </c>
       <c r="B297" t="n">
-        <v>1.967</v>
+        <v>2.182</v>
       </c>
       <c r="C297" t="n">
-        <v>1225921.513</v>
+        <v>1125152.483</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="B298" t="n">
-        <v>2.053</v>
+        <v>2.243</v>
       </c>
       <c r="C298" t="n">
-        <v>1055239.434</v>
+        <v>1038256.496</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45765</v>
+        <v>45768</v>
       </c>
       <c r="B299" t="n">
-        <v>2.055</v>
+        <v>2.215</v>
       </c>
       <c r="C299" t="n">
-        <v>673529.705</v>
+        <v>1566183.499</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45766</v>
+        <v>45769</v>
       </c>
       <c r="B300" t="n">
-        <v>2.182</v>
+        <v>2.408</v>
       </c>
       <c r="C300" t="n">
-        <v>1125152.483</v>
+        <v>2536758.156</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="B301" t="n">
-        <v>2.243</v>
+        <v>2.47</v>
       </c>
       <c r="C301" t="n">
-        <v>1038256.496</v>
+        <v>2464418.145</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="B302" t="n">
-        <v>2.215</v>
+        <v>2.544</v>
       </c>
       <c r="C302" t="n">
-        <v>1566183.499</v>
+        <v>1883298.392</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="B303" t="n">
-        <v>2.408</v>
+        <v>2.621</v>
       </c>
       <c r="C303" t="n">
-        <v>2536758.156</v>
+        <v>1746105.476</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="B304" t="n">
-        <v>2.47</v>
+        <v>2.624</v>
       </c>
       <c r="C304" t="n">
-        <v>2464418.145</v>
+        <v>1724097.649</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="B305" t="n">
-        <v>2.544</v>
+        <v>2.493</v>
       </c>
       <c r="C305" t="n">
-        <v>1883298.392</v>
+        <v>966385.036</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B306" t="n">
-        <v>2.621</v>
+        <v>2.585</v>
       </c>
       <c r="C306" t="n">
-        <v>1746105.476</v>
+        <v>2058692.829</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="B307" t="n">
-        <v>2.624</v>
+        <v>2.53</v>
       </c>
       <c r="C307" t="n">
-        <v>1724097.649</v>
+        <v>1197259.672</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="B308" t="n">
-        <v>2.493</v>
+        <v>2.464</v>
       </c>
       <c r="C308" t="n">
-        <v>966385.036</v>
+        <v>1741661.877</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45775</v>
+        <v>45778</v>
       </c>
       <c r="B309" t="n">
-        <v>2.585</v>
+        <v>2.543</v>
       </c>
       <c r="C309" t="n">
-        <v>2058692.829</v>
+        <v>2071544.429</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45776</v>
+        <v>45779</v>
       </c>
       <c r="B310" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="C310" t="n">
-        <v>1197259.672</v>
+        <v>1559013.909</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45777</v>
+        <v>45780</v>
       </c>
       <c r="B311" t="n">
-        <v>2.464</v>
+        <v>2.424</v>
       </c>
       <c r="C311" t="n">
-        <v>1741661.877</v>
+        <v>1038603.205</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45778</v>
+        <v>45781</v>
       </c>
       <c r="B312" t="n">
-        <v>2.543</v>
+        <v>2.321</v>
       </c>
       <c r="C312" t="n">
-        <v>2071544.429</v>
+        <v>802663.593</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B313" t="n">
-        <v>2.51</v>
+        <v>2.315</v>
       </c>
       <c r="C313" t="n">
-        <v>1559013.909</v>
+        <v>1077134.314</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45780</v>
+        <v>45783</v>
       </c>
       <c r="B314" t="n">
-        <v>2.424</v>
+        <v>2.328</v>
       </c>
       <c r="C314" t="n">
-        <v>1038603.205</v>
+        <v>1347146.339</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45781</v>
+        <v>45784</v>
       </c>
       <c r="B315" t="n">
-        <v>2.321</v>
+        <v>2.285</v>
       </c>
       <c r="C315" t="n">
-        <v>802663.593</v>
+        <v>1519343.789</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45782</v>
+        <v>45785</v>
       </c>
       <c r="B316" t="n">
-        <v>2.315</v>
+        <v>2.736</v>
       </c>
       <c r="C316" t="n">
-        <v>1077134.314</v>
+        <v>2795497.27</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45783</v>
+        <v>45786</v>
       </c>
       <c r="B317" t="n">
-        <v>2.328</v>
+        <v>2.902</v>
       </c>
       <c r="C317" t="n">
-        <v>1347146.339</v>
+        <v>3350128.955</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45784</v>
+        <v>45787</v>
       </c>
       <c r="B318" t="n">
-        <v>2.285</v>
+        <v>3.35</v>
       </c>
       <c r="C318" t="n">
-        <v>1519343.789</v>
+        <v>2805302.247</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45785</v>
+        <v>45788</v>
       </c>
       <c r="B319" t="n">
-        <v>2.736</v>
+        <v>3.14</v>
       </c>
       <c r="C319" t="n">
-        <v>2795497.27</v>
+        <v>2090202.034</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45786</v>
+        <v>45789</v>
       </c>
       <c r="B320" t="n">
-        <v>2.902</v>
+        <v>3.188</v>
       </c>
       <c r="C320" t="n">
-        <v>3350128.955</v>
+        <v>3143783.674</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45787</v>
+        <v>45790</v>
       </c>
       <c r="B321" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="C321" t="n">
-        <v>2805302.247</v>
+        <v>1728629.02</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45788</v>
+        <v>45791</v>
       </c>
       <c r="B322" t="n">
-        <v>3.14</v>
+        <v>3.052</v>
       </c>
       <c r="C322" t="n">
-        <v>2090202.034</v>
+        <v>2770953.615</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="B323" t="n">
-        <v>3.188</v>
+        <v>2.88</v>
       </c>
       <c r="C323" t="n">
-        <v>3143783.674</v>
+        <v>2469461.736</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45790</v>
+        <v>45793</v>
       </c>
       <c r="B324" t="n">
-        <v>3.21</v>
+        <v>2.795</v>
       </c>
       <c r="C324" t="n">
-        <v>1728629.02</v>
+        <v>1753760.89</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45791</v>
+        <v>45794</v>
       </c>
       <c r="B325" t="n">
-        <v>3.052</v>
+        <v>2.694</v>
       </c>
       <c r="C325" t="n">
-        <v>2770953.615</v>
+        <v>1629933.316</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45792</v>
+        <v>45795</v>
       </c>
       <c r="B326" t="n">
-        <v>2.88</v>
+        <v>2.868</v>
       </c>
       <c r="C326" t="n">
-        <v>2469461.736</v>
+        <v>1973695.272</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B327" t="n">
-        <v>2.795</v>
+        <v>2.77</v>
       </c>
       <c r="C327" t="n">
-        <v>1753760.89</v>
+        <v>1768009.051</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45794</v>
+        <v>45797</v>
       </c>
       <c r="B328" t="n">
-        <v>2.694</v>
+        <v>2.814</v>
       </c>
       <c r="C328" t="n">
-        <v>1629933.316</v>
+        <v>1887829.81</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45795</v>
+        <v>45798</v>
       </c>
       <c r="B329" t="n">
-        <v>2.868</v>
+        <v>2.866</v>
       </c>
       <c r="C329" t="n">
-        <v>1973695.272</v>
+        <v>1920333.803</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45796</v>
+        <v>45799</v>
       </c>
       <c r="B330" t="n">
-        <v>2.77</v>
+        <v>3.076</v>
       </c>
       <c r="C330" t="n">
-        <v>1768009.051</v>
+        <v>2366452.081</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45797</v>
+        <v>45800</v>
       </c>
       <c r="B331" t="n">
-        <v>2.814</v>
+        <v>2.8</v>
       </c>
       <c r="C331" t="n">
-        <v>1887829.81</v>
+        <v>1968791.458</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45798</v>
+        <v>45801</v>
       </c>
       <c r="B332" t="n">
-        <v>2.866</v>
+        <v>2.775</v>
       </c>
       <c r="C332" t="n">
-        <v>1920333.803</v>
+        <v>726021.937</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="B333" t="n">
-        <v>3.076</v>
+        <v>2.798</v>
       </c>
       <c r="C333" t="n">
-        <v>2366452.081</v>
+        <v>1032227.655</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B334" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="C334" t="n">
-        <v>1968791.458</v>
+        <v>1133965.942</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="B335" t="n">
-        <v>2.775</v>
+        <v>2.818</v>
       </c>
       <c r="C335" t="n">
-        <v>726021.937</v>
+        <v>1424164.847</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45802</v>
+        <v>45805</v>
       </c>
       <c r="B336" t="n">
-        <v>2.798</v>
+        <v>2.871</v>
       </c>
       <c r="C336" t="n">
-        <v>1032227.655</v>
+        <v>1477938.174</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45803</v>
+        <v>45806</v>
       </c>
       <c r="B337" t="n">
-        <v>2.77</v>
+        <v>2.753</v>
       </c>
       <c r="C337" t="n">
-        <v>1133965.942</v>
+        <v>1823685.501</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45804</v>
+        <v>45807</v>
       </c>
       <c r="B338" t="n">
-        <v>2.818</v>
+        <v>2.446</v>
       </c>
       <c r="C338" t="n">
-        <v>1424164.847</v>
+        <v>3278471.944</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45805</v>
+        <v>45808</v>
       </c>
       <c r="B339" t="n">
-        <v>2.871</v>
+        <v>2.424</v>
       </c>
       <c r="C339" t="n">
-        <v>1477938.174</v>
+        <v>1891117.762</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45806</v>
+        <v>45809</v>
       </c>
       <c r="B340" t="n">
-        <v>2.753</v>
+        <v>2.466</v>
       </c>
       <c r="C340" t="n">
-        <v>1823685.501</v>
+        <v>1151997.853</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B341" t="n">
-        <v>2.446</v>
+        <v>2.504</v>
       </c>
       <c r="C341" t="n">
-        <v>3278471.944</v>
+        <v>1452221.309</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45808</v>
+        <v>45811</v>
       </c>
       <c r="B342" t="n">
-        <v>2.424</v>
+        <v>2.508</v>
       </c>
       <c r="C342" t="n">
-        <v>1891117.762</v>
+        <v>1131458.98</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45809</v>
+        <v>45812</v>
       </c>
       <c r="B343" t="n">
-        <v>2.466</v>
+        <v>2.434</v>
       </c>
       <c r="C343" t="n">
-        <v>1151997.853</v>
+        <v>1114923.574</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B344" t="n">
-        <v>2.504</v>
+        <v>2.251</v>
       </c>
       <c r="C344" t="n">
-        <v>1452221.309</v>
+        <v>2088702.317</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45811</v>
+        <v>45814</v>
       </c>
       <c r="B345" t="n">
-        <v>2.508</v>
+        <v>2.316</v>
       </c>
       <c r="C345" t="n">
-        <v>1131458.98</v>
+        <v>1644798.499</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45812</v>
+        <v>45815</v>
       </c>
       <c r="B346" t="n">
-        <v>2.434</v>
+        <v>2.424</v>
       </c>
       <c r="C346" t="n">
-        <v>1114923.574</v>
+        <v>785325.905</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45813</v>
+        <v>45816</v>
       </c>
       <c r="B347" t="n">
-        <v>2.251</v>
+        <v>2.421</v>
       </c>
       <c r="C347" t="n">
-        <v>2088702.317</v>
+        <v>763069.681</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B348" t="n">
-        <v>2.316</v>
+        <v>2.544</v>
       </c>
       <c r="C348" t="n">
-        <v>1644798.499</v>
+        <v>1059977.066</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45815</v>
+        <v>45818</v>
       </c>
       <c r="B349" t="n">
-        <v>2.424</v>
+        <v>2.662</v>
       </c>
       <c r="C349" t="n">
-        <v>785325.905</v>
+        <v>1123715.186</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45816</v>
+        <v>45819</v>
       </c>
       <c r="B350" t="n">
-        <v>2.421</v>
+        <v>2.574</v>
       </c>
       <c r="C350" t="n">
-        <v>763069.681</v>
+        <v>1313823.109</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45817</v>
+        <v>45820</v>
       </c>
       <c r="B351" t="n">
-        <v>2.544</v>
+        <v>2.37</v>
       </c>
       <c r="C351" t="n">
-        <v>1059977.066</v>
+        <v>1817839.662</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45818</v>
+        <v>45821</v>
       </c>
       <c r="B352" t="n">
-        <v>2.662</v>
+        <v>2.241</v>
       </c>
       <c r="C352" t="n">
-        <v>1123715.186</v>
+        <v>3418994.358</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45819</v>
+        <v>45822</v>
       </c>
       <c r="B353" t="n">
-        <v>2.574</v>
+        <v>2.234</v>
       </c>
       <c r="C353" t="n">
-        <v>1313823.109</v>
+        <v>1229502.601</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45820</v>
+        <v>45823</v>
       </c>
       <c r="B354" t="n">
-        <v>2.37</v>
+        <v>2.229</v>
       </c>
       <c r="C354" t="n">
-        <v>1817839.662</v>
+        <v>1329226.201</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B355" t="n">
-        <v>2.241</v>
+        <v>2.273</v>
       </c>
       <c r="C355" t="n">
-        <v>3418994.358</v>
+        <v>2053964.244</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45822</v>
+        <v>45825</v>
       </c>
       <c r="B356" t="n">
-        <v>2.234</v>
+        <v>2.142</v>
       </c>
       <c r="C356" t="n">
-        <v>1229502.601</v>
+        <v>2053921.746</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45823</v>
+        <v>45826</v>
       </c>
       <c r="B357" t="n">
-        <v>2.229</v>
+        <v>2.189</v>
       </c>
       <c r="C357" t="n">
-        <v>1329226.201</v>
+        <v>1718588.604</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45824</v>
+        <v>45827</v>
       </c>
       <c r="B358" t="n">
-        <v>2.273</v>
+        <v>2.185</v>
       </c>
       <c r="C358" t="n">
-        <v>2053964.244</v>
+        <v>1181344.192</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B359" t="n">
-        <v>2.142</v>
+        <v>2.076</v>
       </c>
       <c r="C359" t="n">
-        <v>2053921.746</v>
+        <v>2221531.252</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45826</v>
+        <v>45829</v>
       </c>
       <c r="B360" t="n">
-        <v>2.189</v>
+        <v>1.974</v>
       </c>
       <c r="C360" t="n">
-        <v>1718588.604</v>
+        <v>1650771.638</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45827</v>
+        <v>45830</v>
       </c>
       <c r="B361" t="n">
-        <v>2.185</v>
+        <v>1.899</v>
       </c>
       <c r="C361" t="n">
-        <v>1181344.192</v>
+        <v>3445705.691</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B362" t="n">
-        <v>2.076</v>
+        <v>2.124</v>
       </c>
       <c r="C362" t="n">
-        <v>2221531.252</v>
+        <v>2991052.69</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="B363" t="n">
-        <v>1.974</v>
+        <v>2.193</v>
       </c>
       <c r="C363" t="n">
-        <v>1650771.638</v>
+        <v>2244106.678</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45830</v>
+        <v>45833</v>
       </c>
       <c r="B364" t="n">
-        <v>1.899</v>
+        <v>2.14</v>
       </c>
       <c r="C364" t="n">
-        <v>3445705.691</v>
+        <v>1594759.535</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="B365" t="n">
-        <v>2.124</v>
+        <v>2.052</v>
       </c>
       <c r="C365" t="n">
-        <v>2991052.69</v>
+        <v>4715050.424</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45832</v>
+        <v>45835</v>
       </c>
       <c r="B366" t="n">
-        <v>2.126</v>
+        <v>2.074</v>
       </c>
       <c r="C366" t="n">
-        <v>220144.729</v>
+        <v>865155.782</v>
       </c>
     </row>
   </sheetData>
